--- a/src/supplierRegistration/Bank.xlsx
+++ b/src/supplierRegistration/Bank.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SampleTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents_Kì 1\SE1\Automation_HCL_Project\src\supplierRegistration\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User Details" sheetId="2" r:id="rId1"/>
     <sheet name="Personal Details" sheetId="3" r:id="rId2"/>
-    <sheet name="Supplier Registration Page3" sheetId="4" r:id="rId3"/>
+    <sheet name="Bank Details" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
   <si>
     <t>Username</t>
   </si>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -483,7 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -821,10 +821,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,64 +833,43 @@
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>10001000</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>10010000</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>10020000</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>10000001</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
     </row>
   </sheetData>
